--- a/MOSFERATU JLCPCB CPL.xlsx
+++ b/MOSFERATU JLCPCB CPL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Peak Graph Data\10_Projects\MSFTU\21 NOV 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0236BA76-F1D1-48D3-B6D4-75B706A1BB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68BF144-5082-4DA3-A8D7-FAF9375023E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{9554DC4B-D57C-4CE6-B29F-4842ACEBB972}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="68">
   <si>
     <t>C1</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>U3</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
   </si>
 </sst>
 </file>
@@ -289,8 +295,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65CD9678-F77E-493B-947F-FB0F0559F0C7}" name="Table1" displayName="Table1" ref="A1:E61" totalsRowShown="0">
-  <autoFilter ref="A1:E61" xr:uid="{65CD9678-F77E-493B-947F-FB0F0559F0C7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65CD9678-F77E-493B-947F-FB0F0559F0C7}" name="Table1" displayName="Table1" ref="A1:E63" totalsRowShown="0">
+  <autoFilter ref="A1:E63" xr:uid="{65CD9678-F77E-493B-947F-FB0F0559F0C7}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F759D5AF-C720-4AA2-B1DF-5E013E8DBB1A}" name="Designator"/>
     <tableColumn id="2" xr3:uid="{8446BEA0-F170-4639-BA94-380A6FDE0798}" name="Mid X"/>
@@ -619,18 +625,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE5B4A1-DFDE-48A7-B636-D8770EBAD267}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.6328125" customWidth="1"/>
-    <col min="2" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -655,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-0.224999</v>
+        <v>-6.2749980000000001</v>
       </c>
       <c r="C2">
-        <v>-22.574998999999998</v>
+        <v>-29.314398000000001</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
       </c>
       <c r="E2">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -672,10 +678,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-18.306999000000001</v>
+        <v>-5.4155519999999999</v>
       </c>
       <c r="C3">
-        <v>-0.63139900000000004</v>
+        <v>3.6025999999999998</v>
       </c>
       <c r="D3" t="s">
         <v>50</v>
@@ -689,16 +695,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.77499899999999999</v>
+        <v>-13.524998</v>
       </c>
       <c r="C4">
-        <v>12.801600000000001</v>
+        <v>-7.8733979999999999</v>
       </c>
       <c r="D4" t="s">
         <v>50</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -706,16 +712,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.375</v>
+        <v>6.78</v>
       </c>
       <c r="C5">
-        <v>-26.174999</v>
+        <v>-29.429998999999999</v>
       </c>
       <c r="D5" t="s">
         <v>50</v>
       </c>
       <c r="E5">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -723,16 +729,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-3.3313990000000002</v>
+        <v>9.3320000000000007</v>
       </c>
       <c r="C6">
-        <v>-15.932952</v>
+        <v>5.6929999999999996</v>
       </c>
       <c r="D6" t="s">
         <v>50</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -740,16 +746,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-5.5153990000000004</v>
+        <v>6.7149999999999999</v>
       </c>
       <c r="C7">
-        <v>-12.706398999999999</v>
+        <v>-4.4813980000000004</v>
       </c>
       <c r="D7" t="s">
         <v>50</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -757,16 +763,16 @@
         <v>57</v>
       </c>
       <c r="B8">
-        <v>-2.0249990000000002</v>
+        <v>-18.724997999999999</v>
       </c>
       <c r="C8">
-        <v>-9.8015989999999995</v>
+        <v>-25.014398</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
       </c>
       <c r="E8">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -774,10 +780,10 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>4.625</v>
+        <v>2.13</v>
       </c>
       <c r="C9">
-        <v>-29.324998999999998</v>
+        <v>-29.429998999999999</v>
       </c>
       <c r="D9" t="s">
         <v>50</v>
@@ -791,16 +797,16 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>13.1846</v>
+        <v>-19.306598999999999</v>
       </c>
       <c r="C10">
-        <v>-5.623399</v>
+        <v>5.0865999999999998</v>
       </c>
       <c r="D10" t="s">
         <v>50</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -808,16 +814,16 @@
         <v>58</v>
       </c>
       <c r="B11">
-        <v>-15.956999</v>
+        <v>-0.27499800000000002</v>
       </c>
       <c r="C11">
-        <v>3.2265999999999999</v>
+        <v>-3.5733980000000001</v>
       </c>
       <c r="D11" t="s">
         <v>50</v>
       </c>
       <c r="E11">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -825,10 +831,10 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>17.134599999999999</v>
+        <v>15.746600000000001</v>
       </c>
       <c r="C12">
-        <v>-7.9733989999999997</v>
+        <v>6.3365999999999998</v>
       </c>
       <c r="D12" t="s">
         <v>50</v>
@@ -842,10 +848,10 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>9.0250000000000004</v>
+        <v>7.23</v>
       </c>
       <c r="C13">
-        <v>-29.324998999999998</v>
+        <v>-26.379999000000002</v>
       </c>
       <c r="D13" t="s">
         <v>50</v>
@@ -856,200 +862,200 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="B14">
-        <v>12.175000000000001</v>
+        <v>-18.724997999999999</v>
       </c>
       <c r="C14">
-        <v>-32.924999</v>
+        <v>-28.064398000000001</v>
       </c>
       <c r="D14" t="s">
         <v>50</v>
       </c>
       <c r="E14">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
-        <v>-4.3749989999999999</v>
+        <v>2.13</v>
       </c>
       <c r="C15">
-        <v>9.6516000000000002</v>
+        <v>-26.379999000000002</v>
       </c>
       <c r="D15" t="s">
         <v>50</v>
       </c>
       <c r="E15">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>-12.339399</v>
+        <v>-16.574998000000001</v>
       </c>
       <c r="C16">
-        <v>7.6600000000000001E-2</v>
+        <v>-7.4233979999999997</v>
       </c>
       <c r="D16" t="s">
         <v>50</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>12.175000000000001</v>
+        <v>6.8410010000000003</v>
       </c>
       <c r="C17">
-        <v>-36.874999000000003</v>
+        <v>-11.139398</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
       </c>
       <c r="E17">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>9.5250000000000004</v>
+        <v>-2.1699989999999998</v>
       </c>
       <c r="C18">
-        <v>-23.824998999999998</v>
+        <v>-28.179998999999999</v>
       </c>
       <c r="D18" t="s">
         <v>50</v>
       </c>
       <c r="E18">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19">
-        <v>16.334599999999998</v>
+        <v>16.54</v>
       </c>
       <c r="C19">
-        <v>2.4765999999999999</v>
+        <v>-27.78</v>
       </c>
       <c r="D19" t="s">
         <v>50</v>
       </c>
       <c r="E19">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B20">
-        <v>17.426600000000001</v>
+        <v>-13.624998</v>
       </c>
       <c r="C20">
-        <v>-3.2233990000000001</v>
+        <v>-25.014398</v>
       </c>
       <c r="D20" t="s">
         <v>50</v>
       </c>
       <c r="E20">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="B21">
-        <v>7.3266</v>
+        <v>-13.082998</v>
       </c>
       <c r="C21">
-        <v>-6.756399</v>
+        <v>-31.072398</v>
       </c>
       <c r="D21" t="s">
         <v>50</v>
       </c>
       <c r="E21">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B22">
-        <v>-7.17</v>
+        <v>19.546600000000002</v>
       </c>
       <c r="C22">
-        <v>-26.7</v>
+        <v>5.0865999999999998</v>
       </c>
       <c r="D22" t="s">
         <v>50</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="B23">
-        <v>7.1</v>
+        <v>-9.3249980000000008</v>
       </c>
       <c r="C23">
-        <v>5.92</v>
+        <v>-23.764398</v>
       </c>
       <c r="D23" t="s">
         <v>50</v>
       </c>
       <c r="E23">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B24">
-        <v>5.1425999999999998</v>
+        <v>14.88</v>
       </c>
       <c r="C24">
-        <v>-18.072399000000001</v>
+        <v>-35.630000000000003</v>
       </c>
       <c r="D24" t="s">
         <v>50</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B25">
-        <v>0.22500000000000001</v>
+        <v>-5.3749979999999997</v>
       </c>
       <c r="C25">
-        <v>-29.324998999999998</v>
+        <v>-17.698398000000001</v>
       </c>
       <c r="D25" t="s">
         <v>50</v>
@@ -1060,13 +1066,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B26">
-        <v>5.5015999999999998</v>
+        <v>6.78</v>
       </c>
       <c r="C26">
-        <v>-10.582998999999999</v>
+        <v>-23.329999000000001</v>
       </c>
       <c r="D26" t="s">
         <v>50</v>
@@ -1077,13 +1083,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B27">
-        <v>-14.65</v>
+        <v>18.68</v>
       </c>
       <c r="C27">
-        <v>-36.869999999999997</v>
+        <v>-42.629998999999998</v>
       </c>
       <c r="D27" t="s">
         <v>50</v>
@@ -1094,98 +1100,98 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B28">
-        <v>10.4846</v>
+        <v>-4.8015990000000004</v>
       </c>
       <c r="C28">
-        <v>-0.42339900000000003</v>
+        <v>-1.748399</v>
       </c>
       <c r="D28" t="s">
         <v>50</v>
       </c>
       <c r="E28">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B29">
-        <v>-14.63</v>
+        <v>4.9830009999999998</v>
       </c>
       <c r="C29">
-        <v>-19.149999999999999</v>
+        <v>-17.039397999999998</v>
       </c>
       <c r="D29" t="s">
         <v>50</v>
       </c>
       <c r="E29">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B30">
-        <v>13.176600000000001</v>
+        <v>-14.64</v>
       </c>
       <c r="C30">
-        <v>-13.206398999999999</v>
+        <v>-41.95</v>
       </c>
       <c r="D30" t="s">
         <v>50</v>
       </c>
       <c r="E30">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B31">
-        <v>12.154</v>
+        <v>16.850000000000001</v>
       </c>
       <c r="C31">
-        <v>-41.228999000000002</v>
+        <v>-18.84</v>
       </c>
       <c r="D31" t="s">
         <v>50</v>
       </c>
       <c r="E31">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B32">
-        <v>4.4386000000000001</v>
+        <v>17.079999999999998</v>
       </c>
       <c r="C32">
-        <v>12.7806</v>
+        <v>-10.68</v>
       </c>
       <c r="D32" t="s">
         <v>50</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B33">
-        <v>-0.72899899999999995</v>
+        <v>-13.670998000000001</v>
       </c>
       <c r="C33">
-        <v>15.130599999999999</v>
+        <v>-34.101398000000003</v>
       </c>
       <c r="D33" t="s">
         <v>50</v>
@@ -1196,132 +1202,132 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B34">
-        <v>-16.011998999999999</v>
+        <v>-1.545998</v>
       </c>
       <c r="C34">
-        <v>-4.8693989999999996</v>
+        <v>-10.385398</v>
       </c>
       <c r="D34" t="s">
         <v>50</v>
       </c>
       <c r="E34">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B35">
-        <v>-4.353999</v>
+        <v>-0.77099799999999996</v>
       </c>
       <c r="C35">
-        <v>13.5556</v>
+        <v>-6.602398</v>
       </c>
       <c r="D35" t="s">
         <v>50</v>
       </c>
       <c r="E35">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B36">
-        <v>-12.835399000000001</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="C36">
-        <v>-3.760399</v>
+        <v>3.1905999999999999</v>
       </c>
       <c r="D36" t="s">
         <v>50</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B37">
-        <v>-18.327998999999998</v>
+        <v>-14.278998</v>
       </c>
       <c r="C37">
-        <v>-4.535399</v>
+        <v>-11.702398000000001</v>
       </c>
       <c r="D37" t="s">
         <v>50</v>
       </c>
       <c r="E37">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B38">
-        <v>-5.1289990000000003</v>
+        <v>7.9859999999999998</v>
       </c>
       <c r="C38">
-        <v>-8.9805989999999998</v>
+        <v>-0.67739899999999997</v>
       </c>
       <c r="D38" t="s">
         <v>50</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B39">
-        <v>-5.1289990000000003</v>
+        <v>5.9080000000000004</v>
       </c>
       <c r="C39">
-        <v>1.6726000000000001</v>
+        <v>6.7039999999999997</v>
       </c>
       <c r="D39" t="s">
         <v>50</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B40">
-        <v>-7.478999</v>
+        <v>5.4779999999999998</v>
       </c>
       <c r="C40">
-        <v>3.9805999999999999</v>
+        <v>-0.67739899999999997</v>
       </c>
       <c r="D40" t="s">
         <v>50</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B41">
-        <v>4.4386000000000001</v>
+        <v>-14.278998</v>
       </c>
       <c r="C41">
-        <v>15.0886</v>
+        <v>-14.710398</v>
       </c>
       <c r="D41" t="s">
         <v>50</v>
@@ -1332,30 +1338,30 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B42">
-        <v>-5.1289990000000003</v>
+        <v>-10.495998</v>
       </c>
       <c r="C42">
-        <v>-0.63539900000000005</v>
+        <v>-18.493397999999999</v>
       </c>
       <c r="D42" t="s">
         <v>50</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B43">
-        <v>3.6556000000000002</v>
+        <v>-12.177599000000001</v>
       </c>
       <c r="C43">
-        <v>-14.968399</v>
+        <v>5.5826000000000002</v>
       </c>
       <c r="D43" t="s">
         <v>50</v>
@@ -1366,30 +1372,30 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B44">
-        <v>10.4306</v>
+        <v>-8.0645520000000008</v>
       </c>
       <c r="C44">
-        <v>-8.0273990000000008</v>
+        <v>-2.8193990000000002</v>
       </c>
       <c r="D44" t="s">
         <v>50</v>
       </c>
       <c r="E44">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B45">
-        <v>16.697600000000001</v>
+        <v>-1.545998</v>
       </c>
       <c r="C45">
-        <v>-19.160399000000002</v>
+        <v>-21.502397999999999</v>
       </c>
       <c r="D45" t="s">
         <v>50</v>
@@ -1400,30 +1406,30 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B46">
-        <v>15.279</v>
+        <v>-8.8789990000000003</v>
       </c>
       <c r="C46">
-        <v>-36.053998999999997</v>
+        <v>6.867</v>
       </c>
       <c r="D46" t="s">
         <v>50</v>
       </c>
       <c r="E46">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B47">
-        <v>-11.395999</v>
+        <v>12.4176</v>
       </c>
       <c r="C47">
-        <v>-12.585399000000001</v>
+        <v>5.5826000000000002</v>
       </c>
       <c r="D47" t="s">
         <v>50</v>
@@ -1434,30 +1440,30 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B48">
-        <v>-11.336999</v>
+        <v>13.8</v>
       </c>
       <c r="C48">
-        <v>3.9805999999999999</v>
+        <v>-41.79</v>
       </c>
       <c r="D48" t="s">
         <v>50</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B49">
-        <v>-6.6619989999999998</v>
+        <v>3.09</v>
       </c>
       <c r="C49">
-        <v>-4.535399</v>
+        <v>3.1905999999999999</v>
       </c>
       <c r="D49" t="s">
         <v>50</v>
@@ -1468,30 +1474,30 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B50">
-        <v>18.663599999999999</v>
+        <v>-8.8395519999999994</v>
       </c>
       <c r="C50">
-        <v>2.9725999999999999</v>
+        <v>0.46360000000000001</v>
       </c>
       <c r="D50" t="s">
         <v>50</v>
       </c>
       <c r="E50">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B51">
-        <v>-8.9699989999999996</v>
+        <v>-19.603998000000001</v>
       </c>
       <c r="C51">
-        <v>-4.535399</v>
+        <v>-7.3773980000000003</v>
       </c>
       <c r="D51" t="s">
         <v>50</v>
@@ -1502,30 +1508,30 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="B52">
-        <v>-4.353999</v>
+        <v>2.2370009999999998</v>
       </c>
       <c r="C52">
-        <v>-4.535399</v>
+        <v>-11.118397999999999</v>
       </c>
       <c r="D52" t="s">
         <v>50</v>
       </c>
       <c r="E52">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B53">
-        <v>0.30399999999999999</v>
+        <v>-1.545998</v>
       </c>
       <c r="C53">
-        <v>-9.7555990000000001</v>
+        <v>-14.943398</v>
       </c>
       <c r="D53" t="s">
         <v>50</v>
@@ -1536,47 +1542,47 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.5726</v>
+        <v>-18.836998000000001</v>
       </c>
       <c r="C54">
-        <v>-13.603952</v>
+        <v>-14.710398</v>
       </c>
       <c r="D54" t="s">
         <v>50</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>5.9635999999999996</v>
+        <v>-18.228998000000001</v>
       </c>
       <c r="C55">
-        <v>-14.968399</v>
+        <v>-31.093398000000001</v>
       </c>
       <c r="D55" t="s">
         <v>50</v>
       </c>
       <c r="E55">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>15.279</v>
+        <v>-13.128997999999999</v>
       </c>
       <c r="C56">
-        <v>-33.745998999999998</v>
+        <v>-28.043398</v>
       </c>
       <c r="D56" t="s">
         <v>50</v>
@@ -1587,64 +1593,64 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>-18.285999</v>
+        <v>-5.3289980000000003</v>
       </c>
       <c r="C57">
-        <v>3.7225999999999999</v>
+        <v>-20.727398000000001</v>
       </c>
       <c r="D57" t="s">
         <v>50</v>
       </c>
       <c r="E57">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B58">
-        <v>-18.327998999999998</v>
+        <v>13.67</v>
       </c>
       <c r="C58">
-        <v>-8.3933990000000005</v>
+        <v>-45.31</v>
       </c>
       <c r="D58" t="s">
         <v>50</v>
       </c>
       <c r="E58">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B59">
-        <v>-8.9699989999999996</v>
+        <v>-18.836998000000001</v>
       </c>
       <c r="C59">
-        <v>-0.67739899999999997</v>
+        <v>-11.702398000000001</v>
       </c>
       <c r="D59" t="s">
         <v>50</v>
       </c>
       <c r="E59">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B60">
-        <v>0.92500000000000004</v>
+        <v>5.5979999999999999</v>
       </c>
       <c r="C60">
-        <v>6.5515999999999996</v>
+        <v>3.1905999999999999</v>
       </c>
       <c r="D60" t="s">
         <v>50</v>
@@ -1655,18 +1661,52 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B61">
+        <v>-1.925999</v>
+      </c>
+      <c r="C61">
+        <v>3.1905999999999999</v>
+      </c>
+      <c r="D61" t="s">
+        <v>50</v>
+      </c>
+      <c r="E61">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62">
+        <v>-7.5249980000000001</v>
+      </c>
+      <c r="C62">
+        <v>-10.523398</v>
+      </c>
+      <c r="D62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>65</v>
       </c>
-      <c r="B61">
-        <v>0.97499999999999998</v>
-      </c>
-      <c r="C61">
-        <v>-4.651599</v>
-      </c>
-      <c r="D61" t="s">
-        <v>50</v>
-      </c>
-      <c r="E61">
+      <c r="B63">
+        <v>-16.524998</v>
+      </c>
+      <c r="C63">
+        <v>-19.964397999999999</v>
+      </c>
+      <c r="D63" t="s">
+        <v>50</v>
+      </c>
+      <c r="E63">
         <v>270</v>
       </c>
     </row>

--- a/MOSFERATU JLCPCB CPL.xlsx
+++ b/MOSFERATU JLCPCB CPL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Peak Graph Data\10_Projects\MSFTU\21 NOV 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Peak Graph Data\10_Projects\MSFTU\23 NOV 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68BF144-5082-4DA3-A8D7-FAF9375023E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F8445F-25F8-421E-84D7-5AE5E1BBC5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{9554DC4B-D57C-4CE6-B29F-4842ACEBB972}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="10060" xr2:uid="{9554DC4B-D57C-4CE6-B29F-4842ACEBB972}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -297,6 +297,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65CD9678-F77E-493B-947F-FB0F0559F0C7}" name="Table1" displayName="Table1" ref="A1:E63" totalsRowShown="0">
   <autoFilter ref="A1:E63" xr:uid="{65CD9678-F77E-493B-947F-FB0F0559F0C7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E63">
+    <sortCondition ref="A1:A63"/>
+  </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F759D5AF-C720-4AA2-B1DF-5E013E8DBB1A}" name="Designator"/>
     <tableColumn id="2" xr3:uid="{8446BEA0-F170-4639-BA94-380A6FDE0798}" name="Mid X"/>
@@ -627,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE5B4A1-DFDE-48A7-B636-D8770EBAD267}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -661,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-6.2749980000000001</v>
+        <v>-4.9733989999999997</v>
       </c>
       <c r="C2">
-        <v>-29.314398000000001</v>
+        <v>-31.073398999999998</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
       </c>
       <c r="E2">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -678,16 +681,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-5.4155519999999999</v>
+        <v>-24.956999</v>
       </c>
       <c r="C3">
-        <v>3.6025999999999998</v>
+        <v>-18.267599000000001</v>
       </c>
       <c r="D3" t="s">
         <v>50</v>
       </c>
       <c r="E3">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -695,16 +698,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-13.524998</v>
+        <v>-8.8749990000000007</v>
       </c>
       <c r="C4">
-        <v>-7.8733979999999999</v>
+        <v>8.2073999999999998</v>
       </c>
       <c r="D4" t="s">
         <v>50</v>
       </c>
       <c r="E4">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -712,16 +715,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.78</v>
+        <v>8.7910000000000004</v>
       </c>
       <c r="C5">
-        <v>-29.429998999999999</v>
+        <v>-16.000599000000001</v>
       </c>
       <c r="D5" t="s">
         <v>50</v>
       </c>
       <c r="E5">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -729,10 +732,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.3320000000000007</v>
+        <v>25.690999999999999</v>
       </c>
       <c r="C6">
-        <v>5.6929999999999996</v>
+        <v>-3.3435990000000002</v>
       </c>
       <c r="D6" t="s">
         <v>50</v>
@@ -746,16 +749,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.7149999999999999</v>
+        <v>12.541</v>
       </c>
       <c r="C7">
-        <v>-4.4813980000000004</v>
+        <v>-15.550599</v>
       </c>
       <c r="D7" t="s">
         <v>50</v>
       </c>
       <c r="E7">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -763,10 +766,10 @@
         <v>57</v>
       </c>
       <c r="B8">
-        <v>-18.724997999999999</v>
+        <v>-9.4249989999999997</v>
       </c>
       <c r="C8">
-        <v>-25.014398</v>
+        <v>-15.292598999999999</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
@@ -780,16 +783,16 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>2.13</v>
+        <v>20.041</v>
       </c>
       <c r="C9">
-        <v>-29.429998999999999</v>
+        <v>-15.550599</v>
       </c>
       <c r="D9" t="s">
         <v>50</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -797,10 +800,10 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>-19.306598999999999</v>
+        <v>-25.798998999999998</v>
       </c>
       <c r="C10">
-        <v>5.0865999999999998</v>
+        <v>2.5983999999999998</v>
       </c>
       <c r="D10" t="s">
         <v>50</v>
@@ -814,16 +817,16 @@
         <v>58</v>
       </c>
       <c r="B11">
-        <v>-0.27499800000000002</v>
+        <v>-25.798998999999998</v>
       </c>
       <c r="C11">
-        <v>-3.5733980000000001</v>
+        <v>-3.2015989999999999</v>
       </c>
       <c r="D11" t="s">
         <v>50</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -831,16 +834,16 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>15.746600000000001</v>
+        <v>12.541</v>
       </c>
       <c r="C12">
-        <v>6.3365999999999998</v>
+        <v>-21.350598999999999</v>
       </c>
       <c r="D12" t="s">
         <v>50</v>
       </c>
       <c r="E12">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -848,10 +851,10 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>7.23</v>
+        <v>6.641</v>
       </c>
       <c r="C13">
-        <v>-26.379999000000002</v>
+        <v>-2.5435989999999999</v>
       </c>
       <c r="D13" t="s">
         <v>50</v>
@@ -865,16 +868,16 @@
         <v>66</v>
       </c>
       <c r="B14">
-        <v>-18.724997999999999</v>
+        <v>-0.474999</v>
       </c>
       <c r="C14">
-        <v>-28.064398000000001</v>
+        <v>-8.5675989999999995</v>
       </c>
       <c r="D14" t="s">
         <v>50</v>
       </c>
       <c r="E14">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -882,10 +885,10 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <v>2.13</v>
+        <v>-18.706999</v>
       </c>
       <c r="C15">
-        <v>-26.379999000000002</v>
+        <v>-29.391598999999999</v>
       </c>
       <c r="D15" t="s">
         <v>50</v>
@@ -899,10 +902,10 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>-16.574998000000001</v>
+        <v>-13.874999000000001</v>
       </c>
       <c r="C16">
-        <v>-7.4233979999999997</v>
+        <v>3.6574</v>
       </c>
       <c r="D16" t="s">
         <v>50</v>
@@ -916,16 +919,16 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>6.8410010000000003</v>
+        <v>16.291</v>
       </c>
       <c r="C17">
-        <v>-11.139398</v>
+        <v>-15.550599</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
       </c>
       <c r="E17">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -933,16 +936,16 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>-2.1699989999999998</v>
+        <v>7.5410000000000004</v>
       </c>
       <c r="C18">
-        <v>-28.179998999999999</v>
+        <v>-20.550598999999998</v>
       </c>
       <c r="D18" t="s">
         <v>50</v>
       </c>
       <c r="E18">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -950,16 +953,16 @@
         <v>14</v>
       </c>
       <c r="B19">
-        <v>16.54</v>
+        <v>1.7749999999999999</v>
       </c>
       <c r="C19">
-        <v>-27.78</v>
+        <v>14.023400000000001</v>
       </c>
       <c r="D19" t="s">
         <v>50</v>
       </c>
       <c r="E19">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -967,10 +970,10 @@
         <v>67</v>
       </c>
       <c r="B20">
-        <v>-13.624998</v>
+        <v>-3.6249989999999999</v>
       </c>
       <c r="C20">
-        <v>-25.014398</v>
+        <v>-15.292598999999999</v>
       </c>
       <c r="D20" t="s">
         <v>50</v>
@@ -984,10 +987,10 @@
         <v>15</v>
       </c>
       <c r="B21">
-        <v>-13.082998</v>
+        <v>17.3766</v>
       </c>
       <c r="C21">
-        <v>-31.072398</v>
+        <v>4.8234000000000004</v>
       </c>
       <c r="D21" t="s">
         <v>50</v>
@@ -1001,16 +1004,16 @@
         <v>59</v>
       </c>
       <c r="B22">
-        <v>19.546600000000002</v>
+        <v>23.176600000000001</v>
       </c>
       <c r="C22">
-        <v>5.0865999999999998</v>
+        <v>4.8234000000000004</v>
       </c>
       <c r="D22" t="s">
         <v>50</v>
       </c>
       <c r="E22">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1018,16 +1021,16 @@
         <v>60</v>
       </c>
       <c r="B23">
-        <v>-9.3249980000000008</v>
+        <v>5.0410000000000004</v>
       </c>
       <c r="C23">
-        <v>-23.764398</v>
+        <v>-10.742599</v>
       </c>
       <c r="D23" t="s">
         <v>50</v>
       </c>
       <c r="E23">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1035,16 +1038,16 @@
         <v>16</v>
       </c>
       <c r="B24">
-        <v>14.88</v>
+        <v>-18.432998999999999</v>
       </c>
       <c r="C24">
-        <v>-35.630000000000003</v>
+        <v>-7.3675990000000002</v>
       </c>
       <c r="D24" t="s">
         <v>50</v>
       </c>
       <c r="E24">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1052,16 +1055,16 @@
         <v>17</v>
       </c>
       <c r="B25">
-        <v>-5.3749979999999997</v>
+        <v>0.32500000000000001</v>
       </c>
       <c r="C25">
-        <v>-17.698398000000001</v>
+        <v>1.6903999999999999</v>
       </c>
       <c r="D25" t="s">
         <v>50</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -1069,16 +1072,16 @@
         <v>18</v>
       </c>
       <c r="B26">
-        <v>6.78</v>
+        <v>21.940999999999999</v>
       </c>
       <c r="C26">
-        <v>-23.329999000000001</v>
+        <v>-3.3435990000000002</v>
       </c>
       <c r="D26" t="s">
         <v>50</v>
       </c>
       <c r="E26">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
@@ -1086,16 +1089,16 @@
         <v>19</v>
       </c>
       <c r="B27">
-        <v>18.68</v>
+        <v>1.075</v>
       </c>
       <c r="C27">
-        <v>-42.629998999999998</v>
+        <v>-24.258599</v>
       </c>
       <c r="D27" t="s">
         <v>50</v>
       </c>
       <c r="E27">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1103,10 +1106,10 @@
         <v>20</v>
       </c>
       <c r="B28">
-        <v>-4.8015990000000004</v>
+        <v>10.058953000000001</v>
       </c>
       <c r="C28">
-        <v>-1.748399</v>
+        <v>21.571000000000002</v>
       </c>
       <c r="D28" t="s">
         <v>50</v>
@@ -1120,10 +1123,10 @@
         <v>21</v>
       </c>
       <c r="B29">
-        <v>4.9830009999999998</v>
+        <v>19.791</v>
       </c>
       <c r="C29">
-        <v>-17.039397999999998</v>
+        <v>-23.400599</v>
       </c>
       <c r="D29" t="s">
         <v>50</v>
@@ -1137,16 +1140,16 @@
         <v>22</v>
       </c>
       <c r="B30">
-        <v>-14.64</v>
+        <v>8.891</v>
       </c>
       <c r="C30">
-        <v>-41.95</v>
+        <v>4.0564</v>
       </c>
       <c r="D30" t="s">
         <v>50</v>
       </c>
       <c r="E30">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
@@ -1154,10 +1157,10 @@
         <v>23</v>
       </c>
       <c r="B31">
-        <v>16.850000000000001</v>
+        <v>14.691000000000001</v>
       </c>
       <c r="C31">
-        <v>-18.84</v>
+        <v>-5.393599</v>
       </c>
       <c r="D31" t="s">
         <v>50</v>
@@ -1171,16 +1174,16 @@
         <v>24</v>
       </c>
       <c r="B32">
-        <v>17.079999999999998</v>
+        <v>-14.798999</v>
       </c>
       <c r="C32">
-        <v>-10.68</v>
+        <v>-22.733599000000002</v>
       </c>
       <c r="D32" t="s">
         <v>50</v>
       </c>
       <c r="E32">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -1188,16 +1191,16 @@
         <v>25</v>
       </c>
       <c r="B33">
-        <v>-13.670998000000001</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="C33">
-        <v>-34.101398000000003</v>
+        <v>-31.827399</v>
       </c>
       <c r="D33" t="s">
         <v>50</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -1205,16 +1208,16 @@
         <v>26</v>
       </c>
       <c r="B34">
-        <v>-1.545998</v>
+        <v>0.27900000000000003</v>
       </c>
       <c r="C34">
-        <v>-10.385398</v>
+        <v>5.4194000000000004</v>
       </c>
       <c r="D34" t="s">
         <v>50</v>
       </c>
       <c r="E34">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -1222,16 +1225,16 @@
         <v>27</v>
       </c>
       <c r="B35">
-        <v>-0.77099799999999996</v>
+        <v>-8.8289989999999996</v>
       </c>
       <c r="C35">
-        <v>-6.602398</v>
+        <v>11.936400000000001</v>
       </c>
       <c r="D35" t="s">
         <v>50</v>
       </c>
       <c r="E35">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -1239,16 +1242,16 @@
         <v>28</v>
       </c>
       <c r="B36">
-        <v>0.58199999999999996</v>
+        <v>-24.460999000000001</v>
       </c>
       <c r="C36">
-        <v>3.1905999999999999</v>
+        <v>-21.996599</v>
       </c>
       <c r="D36" t="s">
         <v>50</v>
       </c>
       <c r="E36">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
@@ -1256,10 +1259,10 @@
         <v>29</v>
       </c>
       <c r="B37">
-        <v>-14.278998</v>
+        <v>-18.378999</v>
       </c>
       <c r="C37">
-        <v>-11.702398000000001</v>
+        <v>4.4783999999999997</v>
       </c>
       <c r="D37" t="s">
         <v>50</v>
@@ -1273,10 +1276,10 @@
         <v>30</v>
       </c>
       <c r="B38">
-        <v>7.9859999999999998</v>
+        <v>23.77</v>
       </c>
       <c r="C38">
-        <v>-0.67739899999999997</v>
+        <v>-16.046599000000001</v>
       </c>
       <c r="D38" t="s">
         <v>50</v>
@@ -1290,16 +1293,16 @@
         <v>31</v>
       </c>
       <c r="B39">
-        <v>5.9080000000000004</v>
+        <v>13.012</v>
       </c>
       <c r="C39">
-        <v>6.7039999999999997</v>
+        <v>11.534000000000001</v>
       </c>
       <c r="D39" t="s">
         <v>50</v>
       </c>
       <c r="E39">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -1307,10 +1310,10 @@
         <v>32</v>
       </c>
       <c r="B40">
-        <v>5.4779999999999998</v>
+        <v>23.77</v>
       </c>
       <c r="C40">
-        <v>-0.67739899999999997</v>
+        <v>-10.788599</v>
       </c>
       <c r="D40" t="s">
         <v>50</v>
@@ -1324,16 +1327,16 @@
         <v>33</v>
       </c>
       <c r="B41">
-        <v>-14.278998</v>
+        <v>-8.8289989999999996</v>
       </c>
       <c r="C41">
-        <v>-14.710398</v>
+        <v>15.644399999999999</v>
       </c>
       <c r="D41" t="s">
         <v>50</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -1341,16 +1344,16 @@
         <v>34</v>
       </c>
       <c r="B42">
-        <v>-10.495998</v>
+        <v>-14.728999</v>
       </c>
       <c r="C42">
-        <v>-18.493397999999999</v>
+        <v>-15.271599</v>
       </c>
       <c r="D42" t="s">
         <v>50</v>
       </c>
       <c r="E42">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -1358,10 +1361,10 @@
         <v>35</v>
       </c>
       <c r="B43">
-        <v>-12.177599000000001</v>
+        <v>-25.777999000000001</v>
       </c>
       <c r="C43">
-        <v>5.5826000000000002</v>
+        <v>-8.5055990000000001</v>
       </c>
       <c r="D43" t="s">
         <v>50</v>
@@ -1375,16 +1378,16 @@
         <v>36</v>
       </c>
       <c r="B44">
-        <v>-8.0645520000000008</v>
+        <v>-7.1079990000000004</v>
       </c>
       <c r="C44">
-        <v>-2.8193990000000002</v>
+        <v>20.745999999999999</v>
       </c>
       <c r="D44" t="s">
         <v>50</v>
       </c>
       <c r="E44">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -1392,16 +1395,16 @@
         <v>37</v>
       </c>
       <c r="B45">
-        <v>-1.545998</v>
+        <v>-0.49599900000000002</v>
       </c>
       <c r="C45">
-        <v>-21.502397999999999</v>
+        <v>-2.813599</v>
       </c>
       <c r="D45" t="s">
         <v>50</v>
       </c>
       <c r="E45">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -1409,16 +1412,16 @@
         <v>38</v>
       </c>
       <c r="B46">
-        <v>-8.8789990000000003</v>
+        <v>-25.777999000000001</v>
       </c>
       <c r="C46">
-        <v>6.867</v>
+        <v>-13.763598999999999</v>
       </c>
       <c r="D46" t="s">
         <v>50</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
@@ -1426,16 +1429,16 @@
         <v>39</v>
       </c>
       <c r="B47">
-        <v>12.4176</v>
+        <v>11.787000000000001</v>
       </c>
       <c r="C47">
-        <v>5.5826000000000002</v>
+        <v>-26.329599000000002</v>
       </c>
       <c r="D47" t="s">
         <v>50</v>
       </c>
       <c r="E47">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -1443,10 +1446,10 @@
         <v>40</v>
       </c>
       <c r="B48">
-        <v>13.8</v>
+        <v>6.3789999999999996</v>
       </c>
       <c r="C48">
-        <v>-41.79</v>
+        <v>-24.279599000000001</v>
       </c>
       <c r="D48" t="s">
         <v>50</v>
@@ -1460,16 +1463,16 @@
         <v>41</v>
       </c>
       <c r="B49">
-        <v>3.09</v>
+        <v>-24.460999000000001</v>
       </c>
       <c r="C49">
-        <v>3.1905999999999999</v>
+        <v>-25.704599000000002</v>
       </c>
       <c r="D49" t="s">
         <v>50</v>
       </c>
       <c r="E49">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -1477,16 +1480,16 @@
         <v>42</v>
       </c>
       <c r="B50">
-        <v>-8.8395519999999994</v>
+        <v>-11.590999</v>
       </c>
       <c r="C50">
-        <v>0.46360000000000001</v>
+        <v>21.521000000000001</v>
       </c>
       <c r="D50" t="s">
         <v>50</v>
       </c>
       <c r="E50">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -1494,16 +1497,16 @@
         <v>43</v>
       </c>
       <c r="B51">
-        <v>-19.603998000000001</v>
+        <v>-10.815999</v>
       </c>
       <c r="C51">
-        <v>-7.3773980000000003</v>
+        <v>26.004000000000001</v>
       </c>
       <c r="D51" t="s">
         <v>50</v>
       </c>
       <c r="E51">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
@@ -1511,16 +1514,16 @@
         <v>44</v>
       </c>
       <c r="B52">
-        <v>2.2370009999999998</v>
+        <v>-5.2209989999999999</v>
       </c>
       <c r="C52">
-        <v>-11.118397999999999</v>
+        <v>-22.729599</v>
       </c>
       <c r="D52" t="s">
         <v>50</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
@@ -1528,10 +1531,10 @@
         <v>45</v>
       </c>
       <c r="B53">
-        <v>-1.545998</v>
+        <v>5.0620000000000003</v>
       </c>
       <c r="C53">
-        <v>-14.943398</v>
+        <v>-16.046599000000001</v>
       </c>
       <c r="D53" t="s">
         <v>50</v>
@@ -1545,10 +1548,10 @@
         <v>61</v>
       </c>
       <c r="B54">
-        <v>-18.836998000000001</v>
+        <v>-5.2209989999999999</v>
       </c>
       <c r="C54">
-        <v>-14.710398</v>
+        <v>-19.021598999999998</v>
       </c>
       <c r="D54" t="s">
         <v>50</v>
@@ -1562,16 +1565,16 @@
         <v>62</v>
       </c>
       <c r="B55">
-        <v>-18.228998000000001</v>
+        <v>1.3540000000000001</v>
       </c>
       <c r="C55">
-        <v>-31.093398000000001</v>
+        <v>-16.046599000000001</v>
       </c>
       <c r="D55" t="s">
         <v>50</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
@@ -1579,10 +1582,10 @@
         <v>63</v>
       </c>
       <c r="B56">
-        <v>-13.128997999999999</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="C56">
-        <v>-28.043398</v>
+        <v>-20.529599000000001</v>
       </c>
       <c r="D56" t="s">
         <v>50</v>
@@ -1596,16 +1599,16 @@
         <v>64</v>
       </c>
       <c r="B57">
-        <v>-5.3289980000000003</v>
+        <v>-5.2209989999999999</v>
       </c>
       <c r="C57">
-        <v>-20.727398000000001</v>
+        <v>-26.437598999999999</v>
       </c>
       <c r="D57" t="s">
         <v>50</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
@@ -1613,16 +1616,16 @@
         <v>46</v>
       </c>
       <c r="B58">
-        <v>13.67</v>
+        <v>-21.294999000000001</v>
       </c>
       <c r="C58">
-        <v>-45.31</v>
+        <v>0.16139999999999999</v>
       </c>
       <c r="D58" t="s">
         <v>50</v>
       </c>
       <c r="E58">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -1630,16 +1633,16 @@
         <v>47</v>
       </c>
       <c r="B59">
-        <v>-18.836998000000001</v>
+        <v>9.3040000000000003</v>
       </c>
       <c r="C59">
-        <v>-11.702398000000001</v>
+        <v>11.534000000000001</v>
       </c>
       <c r="D59" t="s">
         <v>50</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -1647,16 +1650,16 @@
         <v>48</v>
       </c>
       <c r="B60">
-        <v>5.5979999999999999</v>
+        <v>-24.460999000000001</v>
       </c>
       <c r="C60">
-        <v>3.1905999999999999</v>
+        <v>-29.412599</v>
       </c>
       <c r="D60" t="s">
         <v>50</v>
       </c>
       <c r="E60">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -1664,16 +1667,16 @@
         <v>56</v>
       </c>
       <c r="B61">
-        <v>-1.925999</v>
+        <v>10.079000000000001</v>
       </c>
       <c r="C61">
-        <v>3.1905999999999999</v>
+        <v>16.016999999999999</v>
       </c>
       <c r="D61" t="s">
         <v>50</v>
       </c>
       <c r="E61">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
@@ -1681,10 +1684,10 @@
         <v>49</v>
       </c>
       <c r="B62">
-        <v>-7.5249980000000001</v>
+        <v>-7.1749989999999997</v>
       </c>
       <c r="C62">
-        <v>-10.523398</v>
+        <v>0.55740000000000001</v>
       </c>
       <c r="D62" t="s">
         <v>50</v>
@@ -1698,10 +1701,10 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>-16.524998</v>
+        <v>-7.2249990000000004</v>
       </c>
       <c r="C63">
-        <v>-19.964397999999999</v>
+        <v>-9.5425989999999992</v>
       </c>
       <c r="D63" t="s">
         <v>50</v>

--- a/MOSFERATU JLCPCB CPL.xlsx
+++ b/MOSFERATU JLCPCB CPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Peak Graph Data\10_Projects\MSFTU\23 NOV 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F8445F-25F8-421E-84D7-5AE5E1BBC5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B1D345-EA50-4CCA-A058-188BA74EB414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="10060" xr2:uid="{9554DC4B-D57C-4CE6-B29F-4842ACEBB972}"/>
+    <workbookView xWindow="20" yWindow="260" windowWidth="19180" windowHeight="10060" xr2:uid="{9554DC4B-D57C-4CE6-B29F-4842ACEBB972}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="69">
   <si>
     <t>C1</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>C3</t>
+  </si>
+  <si>
+    <t>R4</t>
   </si>
 </sst>
 </file>
@@ -295,10 +298,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65CD9678-F77E-493B-947F-FB0F0559F0C7}" name="Table1" displayName="Table1" ref="A1:E63" totalsRowShown="0">
-  <autoFilter ref="A1:E63" xr:uid="{65CD9678-F77E-493B-947F-FB0F0559F0C7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E63">
-    <sortCondition ref="A1:A63"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65CD9678-F77E-493B-947F-FB0F0559F0C7}" name="Table1" displayName="Table1" ref="A1:E64" totalsRowShown="0">
+  <autoFilter ref="A1:E64" xr:uid="{65CD9678-F77E-493B-947F-FB0F0559F0C7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E64">
+    <sortCondition ref="A1:A64"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F759D5AF-C720-4AA2-B1DF-5E013E8DBB1A}" name="Designator"/>
@@ -628,21 +631,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE5B4A1-DFDE-48A7-B636-D8770EBAD267}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -659,7 +662,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -676,7 +679,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -693,7 +696,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -710,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -727,7 +730,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -744,7 +747,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -761,7 +764,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -778,7 +781,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -795,7 +798,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -812,7 +815,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -829,7 +832,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -846,7 +849,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -863,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>66</v>
       </c>
@@ -880,7 +883,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -897,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -914,7 +917,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -931,7 +934,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -948,7 +951,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -965,7 +968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -982,7 +985,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -999,7 +1002,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -1016,7 +1019,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -1033,7 +1036,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1050,7 +1053,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1067,7 +1070,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -1084,7 +1087,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1101,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -1118,7 +1121,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -1135,7 +1138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -1152,7 +1155,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -1169,7 +1172,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
@@ -1186,7 +1189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>25</v>
       </c>
@@ -1203,7 +1206,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -1220,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>27</v>
       </c>
@@ -1237,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -1254,7 +1257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -1271,7 +1274,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -1288,7 +1291,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -1305,7 +1308,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -1322,7 +1325,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>33</v>
       </c>
@@ -1339,7 +1342,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -1356,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -1373,7 +1376,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>36</v>
       </c>
@@ -1390,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>37</v>
       </c>
@@ -1407,7 +1410,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -1424,7 +1427,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>39</v>
       </c>
@@ -1441,7 +1444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -1458,7 +1461,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -1475,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -1492,7 +1495,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -1509,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -1526,7 +1529,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -1543,7 +1546,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>61</v>
       </c>
@@ -1560,7 +1563,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>62</v>
       </c>
@@ -1577,7 +1580,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -1594,7 +1597,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>64</v>
       </c>
@@ -1611,7 +1614,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>46</v>
       </c>
@@ -1628,15 +1631,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>9.3040000000000003</v>
+        <v>6.63</v>
       </c>
       <c r="C59">
-        <v>11.534000000000001</v>
+        <v>24.02</v>
       </c>
       <c r="D59" t="s">
         <v>50</v>
@@ -1645,71 +1648,88 @@
         <v>270</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60">
+        <v>9.3040000000000003</v>
+      </c>
+      <c r="C60">
+        <v>11.534000000000001</v>
+      </c>
+      <c r="D60" t="s">
+        <v>50</v>
+      </c>
+      <c r="E60">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>48</v>
       </c>
-      <c r="B60">
+      <c r="B61">
         <v>-24.460999000000001</v>
       </c>
-      <c r="C60">
+      <c r="C61">
         <v>-29.412599</v>
       </c>
-      <c r="D60" t="s">
-        <v>50</v>
-      </c>
-      <c r="E60">
+      <c r="D61" t="s">
+        <v>50</v>
+      </c>
+      <c r="E61">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>56</v>
       </c>
-      <c r="B61">
+      <c r="B62">
         <v>10.079000000000001</v>
       </c>
-      <c r="C61">
+      <c r="C62">
         <v>16.016999999999999</v>
       </c>
-      <c r="D61" t="s">
-        <v>50</v>
-      </c>
-      <c r="E61">
+      <c r="D62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62">
         <v>180</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>49</v>
       </c>
-      <c r="B62">
+      <c r="B63">
         <v>-7.1749989999999997</v>
       </c>
-      <c r="C62">
+      <c r="C63">
         <v>0.55740000000000001</v>
       </c>
-      <c r="D62" t="s">
-        <v>50</v>
-      </c>
-      <c r="E62">
+      <c r="D63" t="s">
+        <v>50</v>
+      </c>
+      <c r="E63">
         <v>90</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>65</v>
       </c>
-      <c r="B63">
+      <c r="B64">
         <v>-7.2249990000000004</v>
       </c>
-      <c r="C63">
+      <c r="C64">
         <v>-9.5425989999999992</v>
       </c>
-      <c r="D63" t="s">
-        <v>50</v>
-      </c>
-      <c r="E63">
+      <c r="D64" t="s">
+        <v>50</v>
+      </c>
+      <c r="E64">
         <v>270</v>
       </c>
     </row>

--- a/MOSFERATU JLCPCB CPL.xlsx
+++ b/MOSFERATU JLCPCB CPL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Peak Graph Data\10_Projects\MSFTU\23 NOV 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B1D345-EA50-4CCA-A058-188BA74EB414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25217A7B-1D72-4439-BB23-3A6DA1999310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="260" windowWidth="19180" windowHeight="10060" xr2:uid="{9554DC4B-D57C-4CE6-B29F-4842ACEBB972}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9554DC4B-D57C-4CE6-B29F-4842ACEBB972}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -633,19 +633,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE5B4A1-DFDE-48A7-B636-D8770EBAD267}">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -662,49 +662,49 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-4.9733989999999997</v>
+        <v>-12.376599000000001</v>
       </c>
       <c r="C2">
-        <v>-31.073398999999998</v>
+        <v>-47.826599000000002</v>
       </c>
       <c r="D2" t="s">
         <v>50</v>
       </c>
       <c r="E2">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-24.956999</v>
+        <v>-23.176599</v>
       </c>
       <c r="C3">
-        <v>-18.267599000000001</v>
+        <v>-14.092599</v>
       </c>
       <c r="D3" t="s">
         <v>50</v>
       </c>
       <c r="E3">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-8.8749990000000007</v>
+        <v>-5.9685990000000002</v>
       </c>
       <c r="C4">
-        <v>8.2073999999999998</v>
+        <v>19.0564</v>
       </c>
       <c r="D4" t="s">
         <v>50</v>
@@ -713,15 +713,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.7910000000000004</v>
+        <v>12.3766</v>
       </c>
       <c r="C5">
-        <v>-16.000599000000001</v>
+        <v>-38.173399000000003</v>
       </c>
       <c r="D5" t="s">
         <v>50</v>
@@ -730,15 +730,15 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>25.690999999999999</v>
+        <v>2.4830000000000001</v>
       </c>
       <c r="C6">
-        <v>-3.3435990000000002</v>
+        <v>-5.4265990000000004</v>
       </c>
       <c r="D6" t="s">
         <v>50</v>
@@ -747,15 +747,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.541</v>
+        <v>1.2265999999999999</v>
       </c>
       <c r="C7">
-        <v>-15.550599</v>
+        <v>-24.523399000000001</v>
       </c>
       <c r="D7" t="s">
         <v>50</v>
@@ -764,66 +764,66 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>57</v>
       </c>
       <c r="B8">
-        <v>-9.4249989999999997</v>
+        <v>-17.826599000000002</v>
       </c>
       <c r="C8">
-        <v>-15.292598999999999</v>
+        <v>-12.842599</v>
       </c>
       <c r="D8" t="s">
         <v>50</v>
       </c>
       <c r="E8">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9">
-        <v>20.041</v>
+        <v>6.5766</v>
       </c>
       <c r="C9">
-        <v>-15.550599</v>
+        <v>-32.373398999999999</v>
       </c>
       <c r="D9" t="s">
         <v>50</v>
       </c>
       <c r="E9">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>-25.798998999999998</v>
+        <v>-23.626598999999999</v>
       </c>
       <c r="C10">
-        <v>2.5983999999999998</v>
+        <v>4.0233999999999996</v>
       </c>
       <c r="D10" t="s">
         <v>50</v>
       </c>
       <c r="E10">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>58</v>
       </c>
       <c r="B11">
-        <v>-25.798998999999998</v>
+        <v>-17.826599000000002</v>
       </c>
       <c r="C11">
-        <v>-3.2015989999999999</v>
+        <v>2.7734000000000001</v>
       </c>
       <c r="D11" t="s">
         <v>50</v>
@@ -832,83 +832,83 @@
         <v>270</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>8</v>
       </c>
       <c r="B12">
-        <v>12.541</v>
+        <v>23.6266</v>
       </c>
       <c r="C12">
-        <v>-21.350598999999999</v>
+        <v>-0.52659900000000004</v>
       </c>
       <c r="D12" t="s">
         <v>50</v>
       </c>
       <c r="E12">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13">
-        <v>6.641</v>
+        <v>-0.65</v>
       </c>
       <c r="C13">
-        <v>-2.5435989999999999</v>
+        <v>43.83</v>
       </c>
       <c r="D13" t="s">
         <v>50</v>
       </c>
       <c r="E13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>66</v>
       </c>
       <c r="B14">
-        <v>-0.474999</v>
+        <v>-23.176599</v>
       </c>
       <c r="C14">
-        <v>-8.5675989999999995</v>
+        <v>-9.5425989999999992</v>
       </c>
       <c r="D14" t="s">
         <v>50</v>
       </c>
       <c r="E14">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15">
-        <v>-18.706999</v>
+        <v>12.3766</v>
       </c>
       <c r="C15">
-        <v>-29.391598999999999</v>
+        <v>-44.323399000000002</v>
       </c>
       <c r="D15" t="s">
         <v>50</v>
       </c>
       <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16">
-        <v>-13.874999000000001</v>
+        <v>-13.023399</v>
       </c>
       <c r="C16">
-        <v>3.6574</v>
+        <v>9.8233999999999995</v>
       </c>
       <c r="D16" t="s">
         <v>50</v>
@@ -917,83 +917,83 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17">
-        <v>16.291</v>
+        <v>-4.5733990000000002</v>
       </c>
       <c r="C17">
-        <v>-15.550599</v>
+        <v>-30.323398999999998</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
       </c>
       <c r="E17">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18">
-        <v>7.5410000000000004</v>
+        <v>1.2265999999999999</v>
       </c>
       <c r="C18">
-        <v>-20.550598999999998</v>
+        <v>-31.123398999999999</v>
       </c>
       <c r="D18" t="s">
         <v>50</v>
       </c>
       <c r="E18">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>14</v>
       </c>
       <c r="B19">
-        <v>1.7749999999999999</v>
+        <v>-10.210000000000001</v>
       </c>
       <c r="C19">
-        <v>14.023400000000001</v>
+        <v>51.68</v>
       </c>
       <c r="D19" t="s">
         <v>50</v>
       </c>
       <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>67</v>
       </c>
       <c r="B20">
-        <v>-3.6249989999999999</v>
+        <v>-7.276599</v>
       </c>
       <c r="C20">
-        <v>-15.292598999999999</v>
+        <v>-6.0015989999999997</v>
       </c>
       <c r="D20" t="s">
         <v>50</v>
       </c>
       <c r="E20">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>15</v>
       </c>
       <c r="B21">
-        <v>17.3766</v>
+        <v>-4.5733990000000002</v>
       </c>
       <c r="C21">
-        <v>4.8234000000000004</v>
+        <v>-25.773399000000001</v>
       </c>
       <c r="D21" t="s">
         <v>50</v>
@@ -1002,7 +1002,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>23.176600000000001</v>
       </c>
       <c r="C22">
-        <v>4.8234000000000004</v>
+        <v>4.0233999999999996</v>
       </c>
       <c r="D22" t="s">
         <v>50</v>
@@ -1019,66 +1019,66 @@
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>60</v>
       </c>
       <c r="B23">
-        <v>5.0410000000000004</v>
+        <v>-11.826599</v>
       </c>
       <c r="C23">
-        <v>-10.742599</v>
+        <v>-12.151598999999999</v>
       </c>
       <c r="D23" t="s">
         <v>50</v>
       </c>
       <c r="E23">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>16</v>
       </c>
       <c r="B24">
-        <v>-18.432998999999999</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="C24">
-        <v>-7.3675990000000002</v>
+        <v>51.49</v>
       </c>
       <c r="D24" t="s">
         <v>50</v>
       </c>
       <c r="E24">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>17</v>
       </c>
       <c r="B25">
-        <v>0.32500000000000001</v>
+        <v>3.2313999999999998</v>
       </c>
       <c r="C25">
-        <v>1.6903999999999999</v>
+        <v>7.2813999999999997</v>
       </c>
       <c r="D25" t="s">
         <v>50</v>
       </c>
       <c r="E25">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>18</v>
       </c>
       <c r="B26">
-        <v>21.940999999999999</v>
+        <v>26.389399999999998</v>
       </c>
       <c r="C26">
-        <v>-3.3435990000000002</v>
+        <v>-12.151598999999999</v>
       </c>
       <c r="D26" t="s">
         <v>50</v>
@@ -1087,32 +1087,32 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>19</v>
       </c>
       <c r="B27">
-        <v>1.075</v>
+        <v>16.926600000000001</v>
       </c>
       <c r="C27">
-        <v>-24.258599</v>
+        <v>-38.173399000000003</v>
       </c>
       <c r="D27" t="s">
         <v>50</v>
       </c>
       <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>20</v>
       </c>
       <c r="B28">
-        <v>10.058953000000001</v>
+        <v>-4.63</v>
       </c>
       <c r="C28">
-        <v>21.571000000000002</v>
+        <v>43.9</v>
       </c>
       <c r="D28" t="s">
         <v>50</v>
@@ -1121,15 +1121,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>21</v>
       </c>
       <c r="B29">
-        <v>19.791</v>
+        <v>2.2814000000000001</v>
       </c>
       <c r="C29">
-        <v>-23.400599</v>
+        <v>-14.201599</v>
       </c>
       <c r="D29" t="s">
         <v>50</v>
@@ -1138,15 +1138,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>22</v>
       </c>
       <c r="B30">
-        <v>8.891</v>
+        <v>-13.784599</v>
       </c>
       <c r="C30">
-        <v>4.0564</v>
+        <v>-27.767599000000001</v>
       </c>
       <c r="D30" t="s">
         <v>50</v>
@@ -1155,15 +1155,15 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>23</v>
       </c>
       <c r="B31">
-        <v>14.691000000000001</v>
+        <v>18.339400000000001</v>
       </c>
       <c r="C31">
-        <v>-5.393599</v>
+        <v>-14.201599</v>
       </c>
       <c r="D31" t="s">
         <v>50</v>
@@ -1172,15 +1172,15 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>24</v>
       </c>
       <c r="B32">
-        <v>-14.798999</v>
+        <v>9.2766000000000002</v>
       </c>
       <c r="C32">
-        <v>-22.733599000000002</v>
+        <v>-24.973399000000001</v>
       </c>
       <c r="D32" t="s">
         <v>50</v>
@@ -1189,15 +1189,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>25</v>
       </c>
       <c r="B33">
-        <v>5.5999999999999999E-3</v>
+        <v>-12.355599</v>
       </c>
       <c r="C33">
-        <v>-31.827399</v>
+        <v>-41.722599000000002</v>
       </c>
       <c r="D33" t="s">
         <v>50</v>
@@ -1206,15 +1206,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>26</v>
       </c>
       <c r="B34">
-        <v>0.27900000000000003</v>
+        <v>3.9853999999999998</v>
       </c>
       <c r="C34">
-        <v>5.4194000000000004</v>
+        <v>13.0604</v>
       </c>
       <c r="D34" t="s">
         <v>50</v>
@@ -1223,321 +1223,321 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>27</v>
       </c>
       <c r="B35">
-        <v>-8.8289989999999996</v>
+        <v>0.13539999999999999</v>
       </c>
       <c r="C35">
-        <v>11.936400000000001</v>
+        <v>19.035399999999999</v>
       </c>
       <c r="D35" t="s">
         <v>50</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>28</v>
       </c>
       <c r="B36">
-        <v>-24.460999000000001</v>
+        <v>-23.130599</v>
       </c>
       <c r="C36">
-        <v>-21.996599</v>
+        <v>-18.621599</v>
       </c>
       <c r="D36" t="s">
         <v>50</v>
       </c>
       <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>29</v>
       </c>
       <c r="B37">
-        <v>-18.378999</v>
+        <v>-7.2395990000000001</v>
       </c>
       <c r="C37">
-        <v>4.4783999999999997</v>
+        <v>1.1774</v>
       </c>
       <c r="D37" t="s">
         <v>50</v>
       </c>
       <c r="E37">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>30</v>
       </c>
       <c r="B38">
-        <v>23.77</v>
+        <v>10.3104</v>
       </c>
       <c r="C38">
-        <v>-16.046599000000001</v>
+        <v>-12.105599</v>
       </c>
       <c r="D38" t="s">
         <v>50</v>
       </c>
       <c r="E38">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>31</v>
       </c>
       <c r="B39">
-        <v>13.012</v>
+        <v>-23.130599</v>
       </c>
       <c r="C39">
-        <v>11.534000000000001</v>
+        <v>-23.129598999999999</v>
       </c>
       <c r="D39" t="s">
         <v>50</v>
       </c>
       <c r="E39">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>32</v>
       </c>
       <c r="B40">
-        <v>23.77</v>
+        <v>7.9080000000000004</v>
       </c>
       <c r="C40">
-        <v>-10.788599</v>
+        <v>-6.7779990000000003</v>
       </c>
       <c r="D40" t="s">
         <v>50</v>
       </c>
       <c r="E40">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>33</v>
       </c>
       <c r="B41">
-        <v>-8.8289989999999996</v>
+        <v>7.7603999999999997</v>
       </c>
       <c r="C41">
-        <v>15.644399999999999</v>
+        <v>7.7774000000000001</v>
       </c>
       <c r="D41" t="s">
         <v>50</v>
       </c>
       <c r="E41">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>34</v>
       </c>
       <c r="B42">
-        <v>-14.728999</v>
+        <v>-2.7475990000000001</v>
       </c>
       <c r="C42">
-        <v>-15.271599</v>
+        <v>-5.5055990000000001</v>
       </c>
       <c r="D42" t="s">
         <v>50</v>
       </c>
       <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>35</v>
       </c>
       <c r="B43">
-        <v>-25.777999000000001</v>
+        <v>-23.672599000000002</v>
       </c>
       <c r="C43">
-        <v>-8.5055990000000001</v>
+        <v>-0.50559900000000002</v>
       </c>
       <c r="D43" t="s">
         <v>50</v>
       </c>
       <c r="E43">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>36</v>
       </c>
       <c r="B44">
-        <v>-7.1079990000000004</v>
+        <v>-2.4500000000000002</v>
       </c>
       <c r="C44">
-        <v>20.745999999999999</v>
+        <v>43.85</v>
       </c>
       <c r="D44" t="s">
         <v>50</v>
       </c>
       <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>37</v>
       </c>
       <c r="B45">
-        <v>-0.49599900000000002</v>
+        <v>7.9080000000000004</v>
       </c>
       <c r="C45">
-        <v>-2.813599</v>
+        <v>-2.2699989999999999</v>
       </c>
       <c r="D45" t="s">
         <v>50</v>
       </c>
       <c r="E45">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>38</v>
       </c>
       <c r="B46">
-        <v>-25.777999000000001</v>
+        <v>-23.672599000000002</v>
       </c>
       <c r="C46">
-        <v>-13.763598999999999</v>
+        <v>-5.0135990000000001</v>
       </c>
       <c r="D46" t="s">
         <v>50</v>
       </c>
       <c r="E46">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>39</v>
       </c>
       <c r="B47">
-        <v>11.787000000000001</v>
+        <v>17.8476</v>
       </c>
       <c r="C47">
-        <v>-26.329599000000002</v>
+        <v>3.2694000000000001</v>
       </c>
       <c r="D47" t="s">
         <v>50</v>
       </c>
       <c r="E47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>40</v>
       </c>
       <c r="B48">
-        <v>6.3789999999999996</v>
+        <v>16.9056</v>
       </c>
       <c r="C48">
-        <v>-24.279599000000001</v>
+        <v>-44.277399000000003</v>
       </c>
       <c r="D48" t="s">
         <v>50</v>
       </c>
       <c r="E48">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>41</v>
       </c>
       <c r="B49">
-        <v>-24.460999000000001</v>
+        <v>-16.530598999999999</v>
       </c>
       <c r="C49">
-        <v>-25.704599000000002</v>
+        <v>-20.388598999999999</v>
       </c>
       <c r="D49" t="s">
         <v>50</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>42</v>
       </c>
       <c r="B50">
-        <v>-11.590999</v>
+        <v>9.2683999999999997</v>
       </c>
       <c r="C50">
-        <v>21.521000000000001</v>
+        <v>13.8354</v>
       </c>
       <c r="D50" t="s">
         <v>50</v>
       </c>
       <c r="E50">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>43</v>
       </c>
       <c r="B51">
-        <v>-10.815999</v>
+        <v>8.4933999999999994</v>
       </c>
       <c r="C51">
-        <v>26.004000000000001</v>
+        <v>19.118400000000001</v>
       </c>
       <c r="D51" t="s">
         <v>50</v>
       </c>
       <c r="E51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>44</v>
       </c>
       <c r="B52">
-        <v>-5.2209989999999999</v>
+        <v>1.08</v>
       </c>
       <c r="C52">
-        <v>-22.729599</v>
+        <v>43.86</v>
       </c>
       <c r="D52" t="s">
         <v>50</v>
       </c>
       <c r="E52">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>45</v>
       </c>
       <c r="B53">
-        <v>5.0620000000000003</v>
+        <v>12.2684</v>
       </c>
       <c r="C53">
-        <v>-16.046599000000001</v>
+        <v>7.7774000000000001</v>
       </c>
       <c r="D53" t="s">
         <v>50</v>
@@ -1546,15 +1546,15 @@
         <v>270</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>61</v>
       </c>
       <c r="B54">
-        <v>-5.2209989999999999</v>
+        <v>-12.522599</v>
       </c>
       <c r="C54">
-        <v>-19.021598999999998</v>
+        <v>1.9523999999999999</v>
       </c>
       <c r="D54" t="s">
         <v>50</v>
@@ -1563,83 +1563,83 @@
         <v>180</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>62</v>
       </c>
       <c r="B55">
-        <v>1.3540000000000001</v>
+        <v>-6.5225989999999996</v>
       </c>
       <c r="C55">
-        <v>-16.046599000000001</v>
+        <v>-11.330598999999999</v>
       </c>
       <c r="D55" t="s">
         <v>50</v>
       </c>
       <c r="E55">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>63</v>
       </c>
       <c r="B56">
-        <v>0.57899999999999996</v>
+        <v>-11.247598999999999</v>
       </c>
       <c r="C56">
-        <v>-20.529599000000001</v>
+        <v>-19.613599000000001</v>
       </c>
       <c r="D56" t="s">
         <v>50</v>
       </c>
       <c r="E56">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>64</v>
       </c>
       <c r="B57">
-        <v>-5.2209989999999999</v>
+        <v>-5.7475990000000001</v>
       </c>
       <c r="C57">
-        <v>-26.437598999999999</v>
+        <v>-16.613599000000001</v>
       </c>
       <c r="D57" t="s">
         <v>50</v>
       </c>
       <c r="E57">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>46</v>
       </c>
       <c r="B58">
-        <v>-21.294999000000001</v>
+        <v>2.82</v>
       </c>
       <c r="C58">
-        <v>0.16139999999999999</v>
+        <v>43.86</v>
       </c>
       <c r="D58" t="s">
         <v>50</v>
       </c>
       <c r="E58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>68</v>
       </c>
       <c r="B59">
-        <v>6.63</v>
+        <v>13.339600000000001</v>
       </c>
       <c r="C59">
-        <v>24.02</v>
+        <v>-2.788599</v>
       </c>
       <c r="D59" t="s">
         <v>50</v>
@@ -1648,66 +1648,66 @@
         <v>270</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>47</v>
       </c>
       <c r="B60">
-        <v>9.3040000000000003</v>
+        <v>8.5353999999999992</v>
       </c>
       <c r="C60">
-        <v>11.534000000000001</v>
+        <v>2.4944000000000002</v>
       </c>
       <c r="D60" t="s">
         <v>50</v>
       </c>
       <c r="E60">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>48</v>
       </c>
       <c r="B61">
-        <v>-24.460999000000001</v>
+        <v>-23.130599</v>
       </c>
       <c r="C61">
-        <v>-29.412599</v>
+        <v>-27.637599000000002</v>
       </c>
       <c r="D61" t="s">
         <v>50</v>
       </c>
       <c r="E61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>56</v>
       </c>
       <c r="B62">
-        <v>10.079000000000001</v>
+        <v>-11.09</v>
       </c>
       <c r="C62">
-        <v>16.016999999999999</v>
+        <v>43.3</v>
       </c>
       <c r="D62" t="s">
         <v>50</v>
       </c>
       <c r="E62">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>49</v>
       </c>
       <c r="B63">
-        <v>-7.1749989999999997</v>
+        <v>-4.268599</v>
       </c>
       <c r="C63">
-        <v>0.55740000000000001</v>
+        <v>10.606400000000001</v>
       </c>
       <c r="D63" t="s">
         <v>50</v>
@@ -1716,15 +1716,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>65</v>
       </c>
       <c r="B64">
-        <v>-7.2249990000000004</v>
+        <v>-14.826599</v>
       </c>
       <c r="C64">
-        <v>-9.5425989999999992</v>
+        <v>-4.8015990000000004</v>
       </c>
       <c r="D64" t="s">
         <v>50</v>

--- a/MOSFERATU JLCPCB CPL.xlsx
+++ b/MOSFERATU JLCPCB CPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Peak Graph Data\10_Projects\MSFTU\23 NOV 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\Peak Graph Data\10_Projects\MSFTU\02 DEC 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25217A7B-1D72-4439-BB23-3A6DA1999310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A15808-34CF-414D-896D-6FAEC62CCED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9554DC4B-D57C-4CE6-B29F-4842ACEBB972}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{9554DC4B-D57C-4CE6-B29F-4842ACEBB972}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="71">
   <si>
     <t>C1</t>
   </si>
@@ -83,9 +83,6 @@
     <t>C2A</t>
   </si>
   <si>
-    <t>C31</t>
-  </si>
-  <si>
     <t>C3A</t>
   </si>
   <si>
@@ -107,12 +104,6 @@
     <t>Q3</t>
   </si>
   <si>
-    <t>Q7</t>
-  </si>
-  <si>
-    <t>Q8</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
@@ -182,9 +173,6 @@
     <t>R8</t>
   </si>
   <si>
-    <t>R80</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -215,34 +203,52 @@
     <t>C18</t>
   </si>
   <si>
-    <t>C33</t>
-  </si>
-  <si>
-    <t>C34</t>
-  </si>
-  <si>
-    <t>R33</t>
-  </si>
-  <si>
-    <t>R34</t>
-  </si>
-  <si>
-    <t>R35</t>
-  </si>
-  <si>
-    <t>R36</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
     <t>C2</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>C24</t>
+  </si>
+  <si>
+    <t>C25</t>
+  </si>
+  <si>
+    <t>C26</t>
+  </si>
+  <si>
     <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>U2</t>
   </si>
 </sst>
 </file>
@@ -298,8 +304,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65CD9678-F77E-493B-947F-FB0F0559F0C7}" name="Table1" displayName="Table1" ref="A1:E64" totalsRowShown="0">
-  <autoFilter ref="A1:E64" xr:uid="{65CD9678-F77E-493B-947F-FB0F0559F0C7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65CD9678-F77E-493B-947F-FB0F0559F0C7}" name="Table1" displayName="Table1" ref="A1:E66" totalsRowShown="0">
+  <autoFilter ref="A1:E66" xr:uid="{65CD9678-F77E-493B-947F-FB0F0559F0C7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E64">
     <sortCondition ref="A1:A64"/>
   </sortState>
@@ -631,11 +637,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE5B4A1-DFDE-48A7-B636-D8770EBAD267}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -647,19 +651,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -667,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-12.376599000000001</v>
+        <v>-16.446598999999999</v>
       </c>
       <c r="C2">
-        <v>-47.826599000000002</v>
+        <v>-38.576599000000002</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E2">
         <v>90</v>
@@ -684,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-23.176599</v>
+        <v>0.32</v>
       </c>
       <c r="C3">
-        <v>-14.092599</v>
+        <v>-32.630000000000003</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -701,16 +705,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-5.9685990000000002</v>
+        <v>3.81</v>
       </c>
       <c r="C4">
-        <v>19.0564</v>
+        <v>-32.53</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -718,16 +722,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.3766</v>
+        <v>23.97</v>
       </c>
       <c r="C5">
-        <v>-38.173399000000003</v>
+        <v>-22.23</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E5">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -735,16 +739,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.4830000000000001</v>
+        <v>17.79</v>
       </c>
       <c r="C6">
-        <v>-5.4265990000000004</v>
+        <v>-23.31</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E6">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -752,33 +756,33 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.2265999999999999</v>
+        <v>13.68</v>
       </c>
       <c r="C7">
-        <v>-24.523399000000001</v>
+        <v>-23.37</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E7">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B8">
-        <v>-17.826599000000002</v>
+        <v>14.94</v>
       </c>
       <c r="C8">
-        <v>-12.842599</v>
+        <v>-7.4</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E8">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -786,13 +790,13 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>6.5766</v>
+        <v>18.3734</v>
       </c>
       <c r="C9">
-        <v>-32.373398999999999</v>
+        <v>3.5234000000000001</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E9">
         <v>180</v>
@@ -803,13 +807,13 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>-23.626598999999999</v>
+        <v>-18.823398999999998</v>
       </c>
       <c r="C10">
-        <v>4.0233999999999996</v>
+        <v>3.5234000000000001</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E10">
         <v>180</v>
@@ -817,19 +821,19 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B11">
-        <v>-17.826599000000002</v>
+        <v>-18.823398999999998</v>
       </c>
       <c r="C11">
-        <v>2.7734000000000001</v>
+        <v>-1.526599</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E11">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -837,13 +841,13 @@
         <v>8</v>
       </c>
       <c r="B12">
-        <v>23.6266</v>
+        <v>-10.693999</v>
       </c>
       <c r="C12">
-        <v>-0.52659900000000004</v>
+        <v>4.7969999999999997</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -860,7 +864,7 @@
         <v>43.83</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E13">
         <v>270</v>
@@ -868,16 +872,16 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B14">
-        <v>-23.176599</v>
+        <v>-14.69</v>
       </c>
       <c r="C14">
-        <v>-9.5425989999999992</v>
+        <v>-31.22</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -888,13 +892,13 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <v>12.3766</v>
+        <v>1.8879999999999999</v>
       </c>
       <c r="C15">
-        <v>-44.323399000000002</v>
+        <v>11.442</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E15">
         <v>90</v>
@@ -905,16 +909,16 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>-13.023399</v>
+        <v>2.6880000000000002</v>
       </c>
       <c r="C16">
-        <v>9.8233999999999995</v>
+        <v>5.1420000000000003</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E16">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -922,16 +926,16 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <v>-4.5733990000000002</v>
+        <v>6.9379999999999997</v>
       </c>
       <c r="C17">
-        <v>-30.323398999999998</v>
+        <v>10.992000000000001</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E17">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -939,64 +943,64 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <v>1.2265999999999999</v>
+        <v>23.83</v>
       </c>
       <c r="C18">
-        <v>-31.123398999999999</v>
+        <v>-3.53</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E18">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="B19">
-        <v>-10.210000000000001</v>
+        <v>23.85</v>
       </c>
       <c r="C19">
-        <v>51.68</v>
+        <v>-0.71</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E19">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B20">
-        <v>-7.276599</v>
+        <v>24.08</v>
       </c>
       <c r="C20">
-        <v>-6.0015989999999997</v>
+        <v>-10.66</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E20">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="B21">
-        <v>-4.5733990000000002</v>
+        <v>24.2134</v>
       </c>
       <c r="C21">
-        <v>-25.773399000000001</v>
+        <v>-13.806599</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E21">
         <v>180</v>
@@ -1004,41 +1008,41 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B22">
-        <v>23.176600000000001</v>
+        <v>-10.210000000000001</v>
       </c>
       <c r="C22">
-        <v>4.0233999999999996</v>
+        <v>51.68</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E22">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B23">
-        <v>-11.826599</v>
+        <v>-9.65</v>
       </c>
       <c r="C23">
-        <v>-12.151598999999999</v>
+        <v>24.61</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E23">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24">
         <v>10.220000000000001</v>
@@ -1047,7 +1051,7 @@
         <v>51.49</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E24">
         <v>90</v>
@@ -1055,152 +1059,152 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="B25">
-        <v>3.2313999999999998</v>
+        <v>-16.47</v>
       </c>
       <c r="C25">
-        <v>7.2813999999999997</v>
+        <v>-20.74</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E25">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B26">
-        <v>26.389399999999998</v>
+        <v>8.7100000000000009</v>
       </c>
       <c r="C26">
-        <v>-12.151598999999999</v>
+        <v>24.41</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E26">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B27">
-        <v>16.926600000000001</v>
+        <v>-19.850000000000001</v>
       </c>
       <c r="C27">
-        <v>-38.173399000000003</v>
+        <v>-16.170000000000002</v>
       </c>
       <c r="D27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E27">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="B28">
-        <v>-4.63</v>
+        <v>-15.36</v>
       </c>
       <c r="C28">
-        <v>43.9</v>
+        <v>-16.29</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E28">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B29">
-        <v>2.2814000000000001</v>
+        <v>-2.2200000000000002</v>
       </c>
       <c r="C29">
-        <v>-14.201599</v>
+        <v>-28.11</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B30">
-        <v>-13.784599</v>
+        <v>-6.77</v>
       </c>
       <c r="C30">
-        <v>-27.767599000000001</v>
+        <v>-32.5</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E30">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B31">
-        <v>18.339400000000001</v>
+        <v>-4.6500000000000004</v>
       </c>
       <c r="C31">
-        <v>-14.201599</v>
+        <v>43.66</v>
       </c>
       <c r="D31" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E31">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B32">
-        <v>9.2766000000000002</v>
+        <v>-18.149999999999999</v>
       </c>
       <c r="C32">
-        <v>-24.973399000000001</v>
+        <v>-10.039999999999999</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B33">
-        <v>-12.355599</v>
+        <v>-11.2</v>
       </c>
       <c r="C33">
-        <v>-41.722599000000002</v>
+        <v>-10.24</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E33">
         <v>90</v>
@@ -1208,84 +1212,84 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B34">
-        <v>3.9853999999999998</v>
+        <v>9.08</v>
       </c>
       <c r="C34">
-        <v>13.0604</v>
+        <v>-28.21</v>
       </c>
       <c r="D34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="B35">
-        <v>0.13539999999999999</v>
+        <v>10.795999999999999</v>
       </c>
       <c r="C35">
-        <v>19.035399999999999</v>
+        <v>4.1420000000000003</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E35">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B36">
-        <v>-23.130599</v>
+        <v>-11.82</v>
       </c>
       <c r="C36">
-        <v>-18.621599</v>
+        <v>-38.71</v>
       </c>
       <c r="D36" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E36">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B37">
-        <v>-7.2395990000000001</v>
+        <v>-8.4079990000000002</v>
       </c>
       <c r="C37">
-        <v>1.1774</v>
+        <v>19.446000000000002</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E37">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B38">
-        <v>10.3104</v>
+        <v>-2.2400000000000002</v>
       </c>
       <c r="C38">
-        <v>-12.105599</v>
+        <v>-32.729999999999997</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E38">
         <v>270</v>
@@ -1293,33 +1297,33 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B39">
-        <v>-23.130599</v>
+        <v>8.0640000000000001</v>
       </c>
       <c r="C39">
-        <v>-23.129598999999999</v>
+        <v>-10.735999</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E39">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B40">
-        <v>7.9080000000000004</v>
+        <v>-11.956</v>
       </c>
       <c r="C40">
-        <v>-6.7779990000000003</v>
+        <v>-26.538999</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E40">
         <v>180</v>
@@ -1327,67 +1331,67 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B41">
-        <v>7.7603999999999997</v>
+        <v>21.87</v>
       </c>
       <c r="C41">
-        <v>7.7774000000000001</v>
+        <v>-22.63</v>
       </c>
       <c r="D41" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E41">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B42">
-        <v>-2.7475990000000001</v>
+        <v>-11.189999</v>
       </c>
       <c r="C42">
-        <v>-5.5055990000000001</v>
+        <v>-0.23199900000000001</v>
       </c>
       <c r="D42" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E42">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B43">
-        <v>-23.672599000000002</v>
+        <v>9.31</v>
       </c>
       <c r="C43">
-        <v>-0.50559900000000002</v>
+        <v>-22.24</v>
       </c>
       <c r="D43" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B44">
-        <v>-2.4500000000000002</v>
+        <v>-7.65</v>
       </c>
       <c r="C44">
-        <v>43.85</v>
+        <v>-25.46</v>
       </c>
       <c r="D44" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E44">
         <v>90</v>
@@ -1395,50 +1399,50 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B45">
-        <v>7.9080000000000004</v>
+        <v>18.98</v>
       </c>
       <c r="C45">
-        <v>-2.2699989999999999</v>
+        <v>-7.3</v>
       </c>
       <c r="D45" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B46">
-        <v>-23.672599000000002</v>
+        <v>10.44</v>
       </c>
       <c r="C46">
-        <v>-5.0135990000000001</v>
+        <v>27.49</v>
       </c>
       <c r="D46" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E46">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B47">
-        <v>17.8476</v>
+        <v>-2.4500000000000002</v>
       </c>
       <c r="C47">
-        <v>3.2694000000000001</v>
+        <v>43.85</v>
       </c>
       <c r="D47" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E47">
         <v>90</v>
@@ -1446,271 +1450,271 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B48">
-        <v>16.9056</v>
+        <v>-18.91</v>
       </c>
       <c r="C48">
-        <v>-44.277399000000003</v>
+        <v>-38.57</v>
       </c>
       <c r="D48" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E48">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B49">
-        <v>-16.530598999999999</v>
+        <v>3.9329999999999998</v>
       </c>
       <c r="C49">
-        <v>-20.388598999999999</v>
+        <v>18.670999999999999</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E49">
-        <v>180</v>
+        <v>270</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B50">
-        <v>9.2683999999999997</v>
+        <v>11.967000000000001</v>
       </c>
       <c r="C50">
-        <v>13.8354</v>
+        <v>10.946</v>
       </c>
       <c r="D50" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E50">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B51">
-        <v>8.4933999999999994</v>
+        <v>8.9410000000000007</v>
       </c>
       <c r="C51">
-        <v>19.118400000000001</v>
+        <v>18.670999999999999</v>
       </c>
       <c r="D51" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E51">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B52">
-        <v>1.08</v>
+        <v>18.855</v>
       </c>
       <c r="C52">
-        <v>43.86</v>
+        <v>-9.9609989999999993</v>
       </c>
       <c r="D52" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E52">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B53">
-        <v>12.2684</v>
+        <v>24.09</v>
       </c>
       <c r="C53">
-        <v>7.7774000000000001</v>
+        <v>-17.22</v>
       </c>
       <c r="D53" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E53">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B54">
-        <v>-12.522599</v>
+        <v>13.51</v>
       </c>
       <c r="C54">
-        <v>1.9523999999999999</v>
+        <v>37.869999999999997</v>
       </c>
       <c r="D54" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E54">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="B55">
-        <v>-6.5225989999999996</v>
+        <v>1.08</v>
       </c>
       <c r="C55">
-        <v>-11.330598999999999</v>
+        <v>43.86</v>
       </c>
       <c r="D55" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="B56">
-        <v>-11.247598999999999</v>
+        <v>-21.78</v>
       </c>
       <c r="C56">
-        <v>-19.613599000000001</v>
+        <v>-38.659999999999997</v>
       </c>
       <c r="D56" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E56">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B57">
-        <v>-5.7475990000000001</v>
+        <v>2.82</v>
       </c>
       <c r="C57">
-        <v>-16.613599000000001</v>
+        <v>43.86</v>
       </c>
       <c r="D57" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E57">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>2.82</v>
+        <v>-19.7</v>
       </c>
       <c r="C58">
-        <v>43.86</v>
+        <v>-31.27</v>
       </c>
       <c r="D58" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E58">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>13.339600000000001</v>
+        <v>-19.73</v>
       </c>
       <c r="C59">
-        <v>-2.788599</v>
+        <v>-28.31</v>
       </c>
       <c r="D59" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E59">
-        <v>270</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>8.5353999999999992</v>
+        <v>-19.97</v>
       </c>
       <c r="C60">
-        <v>2.4944000000000002</v>
+        <v>-21.14</v>
       </c>
       <c r="D60" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E60">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-23.130599</v>
+        <v>-23.34</v>
       </c>
       <c r="C61">
-        <v>-27.637599000000002</v>
+        <v>-7.82</v>
       </c>
       <c r="D61" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E61">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B62">
-        <v>-11.09</v>
+        <v>-11.19</v>
       </c>
       <c r="C62">
-        <v>43.3</v>
+        <v>-5.24</v>
       </c>
       <c r="D62" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E62">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-4.268599</v>
+        <v>-11.8</v>
       </c>
       <c r="C63">
-        <v>10.606400000000001</v>
+        <v>-16.34</v>
       </c>
       <c r="D63" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E63">
         <v>90</v>
@@ -1718,18 +1722,52 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B64">
-        <v>-14.826599</v>
+        <v>-4.6500000000000004</v>
       </c>
       <c r="C64">
-        <v>-4.8015990000000004</v>
+        <v>0.54</v>
       </c>
       <c r="D64" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E64">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65">
+        <v>-1.0900000000000001</v>
+      </c>
+      <c r="C65">
+        <v>-8.49</v>
+      </c>
+      <c r="D65" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66">
+        <v>-6.1619989999999998</v>
+      </c>
+      <c r="C66">
+        <v>12.192</v>
+      </c>
+      <c r="D66" t="s">
+        <v>46</v>
+      </c>
+      <c r="E66">
         <v>270</v>
       </c>
     </row>
